--- a/package_201/data/api_test.xlsx
+++ b/package_201/data/api_test.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView activeTab="6" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11745" windowWidth="20445"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet_temp" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="register" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="login" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="recharge" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="withdraw" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bidLoan" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="add" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet_temp" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="register" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="login" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="recharge" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="withdraw" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="bidLoan" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="add" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -1019,7 +1019,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -7382,93 +7382,93 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/register" ref="F2" r:id="rId1"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/register" ref="F3" r:id="rId2"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/register" ref="F4" r:id="rId3"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/register" ref="F5" r:id="rId4"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/register" ref="F6" r:id="rId5"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/register" ref="F7" r:id="rId6"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/register" ref="F8" r:id="rId7"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/register" ref="F9" r:id="rId8"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="F10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId9"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="F11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId10"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="F12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId11"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="F13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId12"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="F14" r:id="rId13"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="F15" r:id="rId14"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="F16" r:id="rId15"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="F17" r:id="rId16"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="F18" r:id="rId17"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="F19" r:id="rId18"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="F20" r:id="rId19"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="F21" r:id="rId20"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="F22" r:id="rId21"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/withdraw" ref="F23" r:id="rId22"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/withdraw" ref="F24" r:id="rId23"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/withdraw" ref="F25" r:id="rId24"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/withdraw" ref="F26" r:id="rId25"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/withdraw" ref="F27" r:id="rId26"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/withdraw" ref="F28" r:id="rId27"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/withdraw" ref="F29" r:id="rId28"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/withdraw" ref="F30" r:id="rId29"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/withdraw" ref="F31" r:id="rId30"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/withdraw" ref="F32" r:id="rId31"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/list" ref="F33" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/list" r:id="rId32"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F34" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId33"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F35" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId34"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F36" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId35"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F37" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId36"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F38" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId37"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F39" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId38"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F40" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId39"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F41" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId40"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F42" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId41"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F43" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId42"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F44" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId43"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F45" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId44"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F46" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId45"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F47" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId46"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F48" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId47"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F49" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId48"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F50" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId49"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F51" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId50"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F52" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId51"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F53" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId52"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F54" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId53"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F55" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId54"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F56" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId55"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F57" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId56"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F58" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId57"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F59" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId58"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F60" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId59"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F61" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId60"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F62" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId61"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F63" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId62"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F64" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId63"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F65" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId64"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F66" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId65"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F67" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId66"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F68" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId67"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F69" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId68"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F70" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId69"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F71" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId70"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F72" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId71"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F73" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId72"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F74" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId73"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F75" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId74"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F76" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId75"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F77" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId76"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F78" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId77"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F79" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId78"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F80" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId79"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F81" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId80"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F82" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId81"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F83" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId82"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F84" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId83"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F85" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId84"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F86" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId85"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F87" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId86"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F88" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId87"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/register" ref="F2" r:id="rId1"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/register" ref="F3" r:id="rId2"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/register" ref="F4" r:id="rId3"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/register" ref="F5" r:id="rId4"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/register" ref="F6" r:id="rId5"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/register" ref="F7" r:id="rId6"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/register" ref="F8" r:id="rId7"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/register" ref="F9" r:id="rId8"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="F10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId9"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="F11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId10"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="F12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId11"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="F13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId12"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="F14" r:id="rId13"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="F15" r:id="rId14"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="F16" r:id="rId15"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="F17" r:id="rId16"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="F18" r:id="rId17"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="F19" r:id="rId18"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="F20" r:id="rId19"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="F21" r:id="rId20"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="F22" r:id="rId21"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/withdraw" ref="F23" r:id="rId22"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/withdraw" ref="F24" r:id="rId23"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/withdraw" ref="F25" r:id="rId24"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/withdraw" ref="F26" r:id="rId25"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/withdraw" ref="F27" r:id="rId26"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/withdraw" ref="F28" r:id="rId27"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/withdraw" ref="F29" r:id="rId28"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/withdraw" ref="F30" r:id="rId29"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/withdraw" ref="F31" r:id="rId30"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/withdraw" ref="F32" r:id="rId31"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/list" ref="F33" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/list" r:id="rId32"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F34" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId33"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F35" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId34"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F36" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId35"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F37" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId36"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F38" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId37"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F39" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId38"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F40" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId39"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F41" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId40"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F42" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId41"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F43" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId42"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F44" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId43"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F45" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId44"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F46" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId45"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F47" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId46"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F48" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId47"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F49" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId48"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F50" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId49"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F51" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId50"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F52" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId51"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F53" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId52"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F54" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId53"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F55" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId54"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F56" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId55"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F57" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId56"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F58" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId57"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F59" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId58"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F60" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId59"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F61" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId60"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F62" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId61"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F63" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId62"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F64" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId63"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F65" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId64"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F66" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId65"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F67" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId66"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F68" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId67"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F69" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId68"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F70" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId69"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F71" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId70"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F72" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId71"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F73" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId72"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F74" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId73"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F75" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId74"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F76" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId75"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F77" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId76"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F78" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId77"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F79" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId78"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F80" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId79"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F81" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId80"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F82" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId81"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F83" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId82"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F84" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId83"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F85" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId84"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F86" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId85"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F87" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId86"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F88" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId87"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -7476,7 +7476,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -9319,18 +9319,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/register" ref="F2" r:id="rId1"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/register" ref="F3" r:id="rId2"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/register" ref="F4" r:id="rId3"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/register" ref="F5" r:id="rId4"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/register" ref="F6" r:id="rId5"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/register" ref="F7" r:id="rId6"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/register" ref="F8" r:id="rId7"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="F9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId8"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="F10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId9"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="F11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId10"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="F12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId11"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="get" ref="E13" r:id="rId12"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/register" ref="F2" r:id="rId1"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/register" ref="F3" r:id="rId2"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/register" ref="F4" r:id="rId3"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/register" ref="F5" r:id="rId4"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/register" ref="F6" r:id="rId5"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/register" ref="F7" r:id="rId6"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/register" ref="F8" r:id="rId7"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="F9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId8"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="F10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId9"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="F11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId10"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="F12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId11"/>
+    <hyperlink display="get" ref="E13" r:id="rId12"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -9338,7 +9338,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -10010,21 +10010,21 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/register" ref="F2" r:id="rId1"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/register" ref="F3" r:id="rId2"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/register" ref="F4" r:id="rId3"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/register" ref="F5" r:id="rId4"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/register" ref="F6" r:id="rId5"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/register" ref="F7" r:id="rId6"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/register" ref="F8" r:id="rId7"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/register" ref="F9" r:id="rId8"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/register" ref="F2" r:id="rId1"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/register" ref="F3" r:id="rId2"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/register" ref="F4" r:id="rId3"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/register" ref="F5" r:id="rId4"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/register" ref="F6" r:id="rId5"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/register" ref="F7" r:id="rId6"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/register" ref="F8" r:id="rId7"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/register" ref="F9" r:id="rId8"/>
   </hyperlinks>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -10416,17 +10416,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="F2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId1"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="F3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId2"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="F4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId3"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="F5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId4"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="F2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId1"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="F3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId2"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="F4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId3"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="F5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId4"/>
   </hyperlinks>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -11220,27 +11220,27 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="F2" r:id="rId1"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="F3" r:id="rId2"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="F4" r:id="rId3"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="F5" r:id="rId4"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="F6" r:id="rId5"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="F7" r:id="rId6"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="F8" r:id="rId7"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="F9" r:id="rId8"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="F10" r:id="rId9"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="F2" r:id="rId1"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="F3" r:id="rId2"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="F4" r:id="rId3"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="F5" r:id="rId4"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="F6" r:id="rId5"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="F7" r:id="rId6"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="F8" r:id="rId7"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="F9" r:id="rId8"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="F10" r:id="rId9"/>
   </hyperlinks>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z11"/>
+  <dimension ref="A1:Z12"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="U15" sqref="U15"/>
@@ -11577,7 +11577,7 @@
       </c>
       <c r="Z4" s="0" t="inlineStr">
         <is>
-          <t>failed</t>
+          <t>passed</t>
         </is>
       </c>
     </row>
@@ -11644,7 +11644,7 @@
       </c>
       <c r="Z5" s="0" t="inlineStr">
         <is>
-          <t>passed</t>
+          <t>failed</t>
         </is>
       </c>
     </row>
@@ -12045,29 +12045,46 @@
       </c>
       <c r="Z11" s="0" t="inlineStr">
         <is>
+          <t>passed</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="G12" s="0" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="H12" s="0" t="inlineStr">
+        <is>
+          <t>{"status": null, "code": null, "data": null, "msg": null}</t>
+        </is>
+      </c>
+      <c r="Z12" s="0" t="inlineStr">
+        <is>
           <t>failed</t>
         </is>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/withdraw" ref="F2" r:id="rId1"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/withdraw" ref="F3" r:id="rId2"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/withdraw" ref="F4" r:id="rId3"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/withdraw" ref="F5" r:id="rId4"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/withdraw" ref="F6" r:id="rId5"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/withdraw" ref="F7" r:id="rId6"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/withdraw" ref="F8" r:id="rId7"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/withdraw" ref="F9" r:id="rId8"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/withdraw" ref="F10" r:id="rId9"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/withdraw" ref="F11" r:id="rId10"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/withdraw" ref="F2" r:id="rId1"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/withdraw" ref="F3" r:id="rId2"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/withdraw" ref="F4" r:id="rId3"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/withdraw" ref="F5" r:id="rId4"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/withdraw" ref="F6" r:id="rId5"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/withdraw" ref="F7" r:id="rId6"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/withdraw" ref="F8" r:id="rId7"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/withdraw" ref="F9" r:id="rId8"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/withdraw" ref="F10" r:id="rId9"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/withdraw" ref="F11" r:id="rId10"/>
   </hyperlinks>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -14073,31 +14090,31 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId1"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId2"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId3"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId4"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId5"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId6"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId7"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId8"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId9"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId10"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId11"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId12"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId13"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId14"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F16" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId15"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId16"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F18" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId17"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F19" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId18"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F20" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId19"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F21" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId20"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F22" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId21"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F23" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId22"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F24" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId23"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F25" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId24"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F26" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId25"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId1"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId2"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId3"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId4"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId5"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId6"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId7"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId8"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId9"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId10"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId11"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId12"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId13"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId14"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F16" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId15"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId16"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F18" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId17"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F19" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId18"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F20" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId19"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F21" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId20"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F22" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId21"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F23" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId22"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F24" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId23"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F25" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId24"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F26" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId25"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -14105,7 +14122,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -16521,34 +16538,34 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId1"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId2"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId3"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId4"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId5"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId6"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId7"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId8"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId9"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId10"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId11"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId12"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId13"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId14"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F16" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId15"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId16"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F18" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId17"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F19" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId18"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F20" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId19"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F21" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId20"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F22" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId21"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F23" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId22"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F24" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId23"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F25" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId24"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F26" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId25"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F27" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId26"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F28" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId27"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F29" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId28"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId1"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId2"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId3"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId4"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId5"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId6"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId7"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId8"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId9"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId10"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId11"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId12"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId13"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId14"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F16" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId15"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId16"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F18" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId17"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F19" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId18"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F20" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId19"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F21" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId20"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F22" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId21"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F23" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId22"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F24" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId23"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F25" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId24"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F26" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId25"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F27" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId26"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F28" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId27"/>
+    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F29" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId28"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/package_201/data/api_test.xlsx
+++ b/package_201/data/api_test.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="6" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11745" windowWidth="20445"/>
+    <workbookView activeTab="5" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="6960" windowWidth="19905"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -54,6 +54,21 @@
     </font>
     <font>
       <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
@@ -62,9 +77,46 @@
     </font>
     <font>
       <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -79,21 +131,30 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color theme="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -114,69 +175,8 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
       <b val="1"/>
       <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -202,7 +202,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -214,19 +262,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -238,151 +382,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -396,6 +396,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -405,35 +420,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -464,32 +461,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -501,10 +501,10 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="17" fontId="8" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="28" fontId="3" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="13" fontId="11" numFmtId="0">
+    <xf applyAlignment="1" borderId="7" fillId="25" fontId="16" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="165">
@@ -513,16 +513,16 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="166">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="11" fontId="8" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="10" fontId="3" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="7" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="11" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="167">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="16" fontId="6" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="24" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0">
@@ -534,112 +534,112 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="18" fontId="0" numFmtId="0">
+    <xf applyAlignment="1" borderId="4" fillId="17" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="21" fontId="6" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="30" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="17" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="12" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="14" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="16" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="5" numFmtId="0">
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="12" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="3" numFmtId="0">
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="6" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="23" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="4" numFmtId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="8" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="26" fontId="6" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="22" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="25" fontId="15" numFmtId="0">
+    <xf applyAlignment="1" borderId="3" fillId="16" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="25" fontId="18" numFmtId="0">
+    <xf applyAlignment="1" borderId="7" fillId="16" fontId="19" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="34" fontId="19" numFmtId="0">
+    <xf applyAlignment="1" borderId="1" fillId="8" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="33" fontId="8" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="27" fontId="3" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="20" fontId="6" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="15" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="10" numFmtId="0">
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="18" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="13" numFmtId="0">
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="10" fontId="9" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="26" fontId="17" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="24" fontId="14" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="21" fontId="15" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="15" fontId="8" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="34" fontId="3" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="32" fontId="6" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="14" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="9" fontId="8" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="33" fontId="3" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="14" fontId="8" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="3" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="31" fontId="8" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="32" fontId="3" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="29" fontId="8" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="3" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="12" fontId="6" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="19" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="6" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="13" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="28" fontId="8" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="31" fontId="3" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="8" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="3" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="30" fontId="6" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="12" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="19" fontId="8" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="3" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="23" fontId="6" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="29" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="6" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="18" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="27" fontId="8" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="9" fontId="3" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="22" fontId="6" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="20" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1026,10 +1026,10 @@
   </sheetPr>
   <dimension ref="A1:Y88"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A10" ySplit="1"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="G38" pane="bottomLeft" sqref="G38"/>
+      <selection activeCell="A22" pane="bottomLeft" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -9343,10 +9343,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y9"/>
+  <dimension ref="A1:Z9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -9367,49 +9367,49 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>case_name</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>api_name</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>method</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>url</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>request_data</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>expected_data</t>
+        </is>
+      </c>
+      <c r="I1" s="4" t="inlineStr">
+        <is>
+          <t>mobilephone</t>
+        </is>
+      </c>
+      <c r="J1" s="4" t="inlineStr">
+        <is>
+          <t>memberId</t>
+        </is>
+      </c>
+      <c r="K1" s="4" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>api_name</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>method</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>url</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>request_data</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>expected_data</t>
-        </is>
-      </c>
-      <c r="I1" s="4" t="inlineStr">
-        <is>
-          <t>mobilephone</t>
-        </is>
-      </c>
-      <c r="J1" s="4" t="inlineStr">
-        <is>
-          <t>memberId</t>
-        </is>
-      </c>
-      <c r="K1" s="4" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
       <c r="L1" s="4" t="inlineStr">
         <is>
           <t>loanRate</t>
@@ -9478,6 +9478,11 @@
       <c r="Y1" s="5" t="inlineStr">
         <is>
           <t>msg</t>
+        </is>
+      </c>
+      <c r="Z1" s="0" t="inlineStr">
+        <is>
+          <t>result</t>
         </is>
       </c>
     </row>
@@ -9517,7 +9522,7 @@
       </c>
       <c r="H2" s="1" t="inlineStr">
         <is>
-          <t>{"status": "1", "code": "10001", "data": "null", "msg": "成功"}</t>
+          <t>{"status": 1, "code": "10001", "data": null, "msg": "成功"}</t>
         </is>
       </c>
       <c r="I2" s="1" t="n">
@@ -9540,6 +9545,11 @@
       <c r="Y2" s="1" t="inlineStr">
         <is>
           <t>成功</t>
+        </is>
+      </c>
+      <c r="Z2" s="0" t="inlineStr">
+        <is>
+          <t>failed</t>
         </is>
       </c>
     </row>
@@ -9579,7 +9589,7 @@
       </c>
       <c r="H3" s="1" t="inlineStr">
         <is>
-          <t>{"status": "1", "code": "10001", "data": "null", "msg": "成功"}</t>
+          <t>{"status": 1, "code": "10001", "data": null, "msg": "成功"}</t>
         </is>
       </c>
       <c r="I3" s="1" t="n">
@@ -9607,6 +9617,11 @@
       <c r="Y3" s="1" t="inlineStr">
         <is>
           <t>成功</t>
+        </is>
+      </c>
+      <c r="Z3" s="0" t="inlineStr">
+        <is>
+          <t>failed</t>
         </is>
       </c>
     </row>
@@ -9646,7 +9661,7 @@
       </c>
       <c r="H4" s="1" t="inlineStr">
         <is>
-          <t>{"status": "0", "code": "20103", "data": "null", "msg": "参数错误：参数不能为空"}</t>
+          <t>{"status": 0, "code": "20103", "data": null, "msg": "参数错误：参数不能为空"}</t>
         </is>
       </c>
       <c r="S4" s="1" t="n">
@@ -9671,6 +9686,11 @@
       <c r="Y4" s="1" t="inlineStr">
         <is>
           <t>参数错误：参数不能为空</t>
+        </is>
+      </c>
+      <c r="Z4" s="0" t="inlineStr">
+        <is>
+          <t>passed</t>
         </is>
       </c>
     </row>
@@ -9710,7 +9730,7 @@
       </c>
       <c r="H5" s="1" t="inlineStr">
         <is>
-          <t>{"status": "0", "code": "20103", "data": "null", "msg": "参数错误：参数不能为空"}</t>
+          <t>{"status": 0, "code": "20103", "data": null, "msg": "参数错误：参数不能为空"}</t>
         </is>
       </c>
       <c r="I5" s="1" t="n">
@@ -9735,6 +9755,11 @@
       <c r="Y5" s="1" t="inlineStr">
         <is>
           <t>参数错误：参数不能为空</t>
+        </is>
+      </c>
+      <c r="Z5" s="0" t="inlineStr">
+        <is>
+          <t>passed</t>
         </is>
       </c>
     </row>
@@ -9774,7 +9799,7 @@
       </c>
       <c r="H6" s="1" t="inlineStr">
         <is>
-          <t>{"status": "0", "code": "20108", "data": "null", "msg": "密码长度必须为6~18"}</t>
+          <t>{"status": 0, "code": "20108", "data": null, "msg": "密码长度必须为6~18"}</t>
         </is>
       </c>
       <c r="I6" s="1" t="n">
@@ -9802,6 +9827,11 @@
       <c r="Y6" s="1" t="inlineStr">
         <is>
           <t>密码长度必须为6~18</t>
+        </is>
+      </c>
+      <c r="Z6" s="0" t="inlineStr">
+        <is>
+          <t>passed</t>
         </is>
       </c>
     </row>
@@ -9836,12 +9866,12 @@
       </c>
       <c r="G7" s="1" t="inlineStr">
         <is>
-          <t>{"mobilephone": "13912541274", "pwd": "123456789123456789", "regname": "${nickname1}"}</t>
+          <t>{"mobilephone": "13912541274", "pwd": "12345678901234567890", "regname": "${nickname1}"}</t>
         </is>
       </c>
       <c r="H7" s="1" t="inlineStr">
         <is>
-          <t>{"status": "0", "code": "20108", "data": "null", "msg": "密码长度必须为6~18"}</t>
+          <t>{"status": 0, "code": "20108", "data": null, "msg": "密码长度必须为6~18"}</t>
         </is>
       </c>
       <c r="I7" s="1" t="n">
@@ -9849,7 +9879,7 @@
       </c>
       <c r="S7" s="11" t="inlineStr">
         <is>
-          <t>123456789123456789</t>
+          <t>12345678901234567890</t>
         </is>
       </c>
       <c r="U7" s="1" t="inlineStr">
@@ -9871,6 +9901,11 @@
       <c r="Y7" s="1" t="inlineStr">
         <is>
           <t>密码长度必须为6~18</t>
+        </is>
+      </c>
+      <c r="Z7" s="0" t="inlineStr">
+        <is>
+          <t>passed</t>
         </is>
       </c>
     </row>
@@ -9905,12 +9940,12 @@
       </c>
       <c r="G8" s="1" t="inlineStr">
         <is>
-          <t>{"mobilephone": "123", "pwd": "123456", "regname": "${nickname1}"}</t>
+          <t>{"mobilephone": "175", "pwd": "123456", "regname": "${nickname1}"}</t>
         </is>
       </c>
       <c r="H8" s="1" t="inlineStr">
         <is>
-          <t>{"status": "0", "code": "20109", "data": "null", "msg": "手机号码格式不正确"}</t>
+          <t>{"status": 0, "code": "20109", "data": null, "msg": "手机号码格式不正确"}</t>
         </is>
       </c>
       <c r="I8" s="1" t="n">
@@ -9938,6 +9973,11 @@
       <c r="Y8" s="1" t="inlineStr">
         <is>
           <t>手机号码格式不正确</t>
+        </is>
+      </c>
+      <c r="Z8" s="0" t="inlineStr">
+        <is>
+          <t>passed</t>
         </is>
       </c>
     </row>
@@ -9972,12 +10012,12 @@
       </c>
       <c r="G9" s="1" t="inlineStr">
         <is>
-          <t>{"mobilephone": "13912541270", "pwd": "123456", "regname": "${nickname1}"}</t>
+          <t>{"mobilephone": "13912345611", "pwd": "123456", "regname": "${nickname1}"}</t>
         </is>
       </c>
       <c r="H9" s="1" t="inlineStr">
         <is>
-          <t>{"status": "0", "code": "20110", "data": "null", "msg": "手机号码已被注册"}</t>
+          <t>{"status": 0, "code": "20110", "data": null, "msg": "手机号码已被注册"}</t>
         </is>
       </c>
       <c r="I9" s="1" t="n">
@@ -10005,6 +10045,11 @@
       <c r="Y9" s="1" t="inlineStr">
         <is>
           <t>手机号码已被注册</t>
+        </is>
+      </c>
+      <c r="Z9" s="0" t="inlineStr">
+        <is>
+          <t>passed</t>
         </is>
       </c>
     </row>
@@ -10032,7 +10077,7 @@
   <dimension ref="A1:Z5"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -10166,7 +10211,7 @@
           <t>msg</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="Z1" s="0" t="inlineStr">
         <is>
           <t>result</t>
         </is>
@@ -10433,8 +10478,8 @@
   </sheetPr>
   <dimension ref="A1:Z10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -11240,10 +11285,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z12"/>
+  <dimension ref="A1:Z11"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="U15" sqref="U15"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -11577,7 +11622,7 @@
       </c>
       <c r="Z4" s="0" t="inlineStr">
         <is>
-          <t>passed</t>
+          <t>failed</t>
         </is>
       </c>
     </row>
@@ -11644,7 +11689,7 @@
       </c>
       <c r="Z5" s="0" t="inlineStr">
         <is>
-          <t>failed</t>
+          <t>passed</t>
         </is>
       </c>
     </row>
@@ -12044,23 +12089,6 @@
         </is>
       </c>
       <c r="Z11" s="0" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="G12" s="0" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="H12" s="0" t="inlineStr">
-        <is>
-          <t>{"status": null, "code": null, "data": null, "msg": null}</t>
-        </is>
-      </c>
-      <c r="Z12" s="0" t="inlineStr">
         <is>
           <t>failed</t>
         </is>
@@ -12091,8 +12119,8 @@
   </sheetPr>
   <dimension ref="A1:Z26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V17" sqref="A17:V17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -14129,8 +14157,8 @@
   </sheetPr>
   <dimension ref="A1:U29"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="A20" sqref="$A20:$XFD20"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/package_201/data/api_test.xlsx
+++ b/package_201/data/api_test.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView activeTab="5" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="6960" windowWidth="19905"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Sheet_temp" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="register" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="login" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="recharge" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="withdraw" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="bidLoan" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="add" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet_temp" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="register" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="login" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="recharge" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="withdraw" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bidLoan" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="add" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -1019,7 +1019,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -7382,93 +7382,93 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/register" ref="F2" r:id="rId1"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/register" ref="F3" r:id="rId2"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/register" ref="F4" r:id="rId3"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/register" ref="F5" r:id="rId4"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/register" ref="F6" r:id="rId5"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/register" ref="F7" r:id="rId6"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/register" ref="F8" r:id="rId7"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/register" ref="F9" r:id="rId8"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="F10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId9"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="F11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId10"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="F12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId11"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="F13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId12"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="F14" r:id="rId13"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="F15" r:id="rId14"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="F16" r:id="rId15"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="F17" r:id="rId16"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="F18" r:id="rId17"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="F19" r:id="rId18"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="F20" r:id="rId19"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="F21" r:id="rId20"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="F22" r:id="rId21"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/withdraw" ref="F23" r:id="rId22"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/withdraw" ref="F24" r:id="rId23"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/withdraw" ref="F25" r:id="rId24"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/withdraw" ref="F26" r:id="rId25"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/withdraw" ref="F27" r:id="rId26"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/withdraw" ref="F28" r:id="rId27"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/withdraw" ref="F29" r:id="rId28"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/withdraw" ref="F30" r:id="rId29"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/withdraw" ref="F31" r:id="rId30"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/withdraw" ref="F32" r:id="rId31"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/list" ref="F33" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/list" r:id="rId32"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F34" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId33"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F35" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId34"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F36" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId35"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F37" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId36"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F38" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId37"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F39" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId38"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F40" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId39"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F41" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId40"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F42" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId41"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F43" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId42"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F44" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId43"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F45" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId44"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F46" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId45"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F47" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId46"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F48" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId47"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F49" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId48"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F50" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId49"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F51" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId50"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F52" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId51"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F53" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId52"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F54" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId53"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F55" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId54"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F56" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId55"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F57" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId56"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F58" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId57"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F59" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId58"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F60" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId59"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F61" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId60"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F62" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId61"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F63" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId62"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F64" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId63"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F65" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId64"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F66" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId65"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F67" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId66"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F68" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId67"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F69" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId68"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F70" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId69"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F71" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId70"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F72" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId71"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F73" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId72"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F74" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId73"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F75" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId74"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F76" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId75"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F77" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId76"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F78" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId77"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F79" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId78"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F80" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId79"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F81" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId80"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F82" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId81"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F83" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId82"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F84" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId83"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F85" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId84"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F86" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId85"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F87" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId86"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F88" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId87"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/register" ref="F2" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/register" ref="F3" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/register" ref="F4" r:id="rId3"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/register" ref="F5" r:id="rId4"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/register" ref="F6" r:id="rId5"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/register" ref="F7" r:id="rId6"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/register" ref="F8" r:id="rId7"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/register" ref="F9" r:id="rId8"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="F10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId9"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="F11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId10"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="F12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId11"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="F13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId12"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="F14" r:id="rId13"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="F15" r:id="rId14"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="F16" r:id="rId15"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="F17" r:id="rId16"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="F18" r:id="rId17"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="F19" r:id="rId18"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="F20" r:id="rId19"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="F21" r:id="rId20"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="F22" r:id="rId21"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/withdraw" ref="F23" r:id="rId22"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/withdraw" ref="F24" r:id="rId23"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/withdraw" ref="F25" r:id="rId24"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/withdraw" ref="F26" r:id="rId25"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/withdraw" ref="F27" r:id="rId26"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/withdraw" ref="F28" r:id="rId27"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/withdraw" ref="F29" r:id="rId28"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/withdraw" ref="F30" r:id="rId29"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/withdraw" ref="F31" r:id="rId30"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/withdraw" ref="F32" r:id="rId31"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/list" ref="F33" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/list" r:id="rId32"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F34" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId33"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F35" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId34"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F36" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId35"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F37" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId36"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F38" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId37"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F39" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId38"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F40" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId39"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F41" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId40"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F42" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId41"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F43" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId42"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F44" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId43"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F45" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId44"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F46" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId45"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F47" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId46"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F48" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId47"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F49" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId48"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F50" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId49"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F51" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId50"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F52" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId51"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F53" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId52"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F54" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId53"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F55" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId54"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F56" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId55"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F57" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId56"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F58" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId57"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F59" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId58"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F60" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId59"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F61" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId60"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F62" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId61"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F63" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId62"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F64" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId63"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F65" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId64"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F66" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId65"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F67" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId66"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F68" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId67"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F69" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId68"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F70" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId69"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F71" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId70"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F72" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId71"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F73" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId72"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F74" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId73"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F75" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId74"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F76" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId75"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F77" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId76"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F78" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId77"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F79" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId78"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F80" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId79"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F81" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId80"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F82" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId81"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F83" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId82"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F84" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId83"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F85" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId84"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F86" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId85"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F87" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId86"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F88" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId87"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -7476,7 +7476,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -9319,18 +9319,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/register" ref="F2" r:id="rId1"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/register" ref="F3" r:id="rId2"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/register" ref="F4" r:id="rId3"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/register" ref="F5" r:id="rId4"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/register" ref="F6" r:id="rId5"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/register" ref="F7" r:id="rId6"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/register" ref="F8" r:id="rId7"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="F9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId8"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="F10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId9"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="F11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId10"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="F12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId11"/>
-    <hyperlink display="get" ref="E13" r:id="rId12"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/register" ref="F2" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/register" ref="F3" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/register" ref="F4" r:id="rId3"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/register" ref="F5" r:id="rId4"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/register" ref="F6" r:id="rId5"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/register" ref="F7" r:id="rId6"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/register" ref="F8" r:id="rId7"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="F9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId8"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="F10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId9"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="F11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId10"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="F12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId11"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="get" ref="E13" r:id="rId12"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -9338,7 +9338,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -10055,21 +10055,21 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/register" ref="F2" r:id="rId1"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/register" ref="F3" r:id="rId2"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/register" ref="F4" r:id="rId3"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/register" ref="F5" r:id="rId4"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/register" ref="F6" r:id="rId5"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/register" ref="F7" r:id="rId6"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/register" ref="F8" r:id="rId7"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/register" ref="F9" r:id="rId8"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/register" ref="F2" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/register" ref="F3" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/register" ref="F4" r:id="rId3"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/register" ref="F5" r:id="rId4"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/register" ref="F6" r:id="rId5"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/register" ref="F7" r:id="rId6"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/register" ref="F8" r:id="rId7"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/register" ref="F9" r:id="rId8"/>
   </hyperlinks>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -10461,17 +10461,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="F2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId1"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="F3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId2"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="F4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId3"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="F5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId4"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="F2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="F3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="F4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId3"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/login" ref="F5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId4"/>
   </hyperlinks>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -11265,22 +11265,22 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="F2" r:id="rId1"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="F3" r:id="rId2"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="F4" r:id="rId3"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="F5" r:id="rId4"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="F6" r:id="rId5"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="F7" r:id="rId6"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="F8" r:id="rId7"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="F9" r:id="rId8"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="F10" r:id="rId9"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="F2" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="F3" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="F4" r:id="rId3"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="F5" r:id="rId4"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="F6" r:id="rId5"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="F7" r:id="rId6"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="F8" r:id="rId7"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="F9" r:id="rId8"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/recharge" ref="F10" r:id="rId9"/>
   </hyperlinks>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -12096,23 +12096,23 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/withdraw" ref="F2" r:id="rId1"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/withdraw" ref="F3" r:id="rId2"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/withdraw" ref="F4" r:id="rId3"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/withdraw" ref="F5" r:id="rId4"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/withdraw" ref="F6" r:id="rId5"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/withdraw" ref="F7" r:id="rId6"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/withdraw" ref="F8" r:id="rId7"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/withdraw" ref="F9" r:id="rId8"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/withdraw" ref="F10" r:id="rId9"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/withdraw" ref="F11" r:id="rId10"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/withdraw" ref="F2" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/withdraw" ref="F3" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/withdraw" ref="F4" r:id="rId3"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/withdraw" ref="F5" r:id="rId4"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/withdraw" ref="F6" r:id="rId5"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/withdraw" ref="F7" r:id="rId6"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/withdraw" ref="F8" r:id="rId7"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/withdraw" ref="F9" r:id="rId8"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/withdraw" ref="F10" r:id="rId9"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/withdraw" ref="F11" r:id="rId10"/>
   </hyperlinks>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -14118,31 +14118,31 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId1"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId2"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId3"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId4"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId5"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId6"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId7"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId8"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId9"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId10"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId11"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId12"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId13"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId14"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F16" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId15"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId16"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F18" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId17"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F19" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId18"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F20" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId19"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F21" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId20"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F22" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId21"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F23" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId22"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F24" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId23"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F25" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId24"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F26" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId25"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId3"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId4"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId5"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId6"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId7"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId8"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId9"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId10"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId11"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId12"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId13"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId14"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F16" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId15"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId16"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F18" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId17"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F19" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId18"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F20" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId19"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F21" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId20"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F22" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId21"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F23" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId22"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F24" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId23"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F25" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId24"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" ref="F26" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId25"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -14150,7 +14150,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -16566,34 +16566,34 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId1"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId2"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId3"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId4"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId5"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId6"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId7"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId8"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId9"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId10"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId11"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId12"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId13"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId14"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F16" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId15"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId16"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F18" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId17"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F19" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId18"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F20" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId19"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F21" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId20"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F22" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId21"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F23" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId22"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F24" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId23"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F25" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId24"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F26" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId25"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F27" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId26"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F28" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId27"/>
-    <hyperlink display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F29" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId28"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId3"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId4"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId5"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId6"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId7"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId8"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId9"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId10"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId11"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId12"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId13"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId14"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F16" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId15"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId16"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F18" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId17"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F19" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId18"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F20" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId19"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F21" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId20"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F22" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId21"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F23" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId22"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F24" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId23"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F25" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId24"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F26" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId25"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F27" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId26"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F28" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId27"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://test.lemonban.com/futureloan/mvc/api/member/add" ref="F29" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId28"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
